--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1036.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1036.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>2.126438916031681</v>
+        <v>0.9994668960571289</v>
       </c>
       <c r="B1">
-        <v>3.234062193888491</v>
+        <v>1.024011135101318</v>
       </c>
       <c r="C1">
-        <v>2.711666299217721</v>
+        <v>-1</v>
       </c>
       <c r="D1">
-        <v>2.251011175335972</v>
+        <v>2.095846176147461</v>
       </c>
       <c r="E1">
-        <v>1.474805743852093</v>
+        <v>1.053468942642212</v>
       </c>
     </row>
   </sheetData>
